--- a/excelfiles/MW-NIFTY-MIDCAP-50-31-Dec-2025.xlsx
+++ b/excelfiles/MW-NIFTY-MIDCAP-50-31-Dec-2025.xlsx
@@ -15,13 +15,14 @@
   <sheets>
     <sheet name="MW-NIFTY-MIDCAP-50-31-Dec-2025" sheetId="1" r:id="rId1"/>
     <sheet name="Result" r:id="rId5" sheetId="2"/>
+    <sheet name="Result1" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
   <si>
     <t xml:space="preserve">SYMBOL 
 </t>
@@ -399,6 +400,9 @@
   </si>
   <si>
     <t>DiffFrom52WHigh</t>
+  </si>
+  <si>
+    <t>DiffFrom52WLow</t>
   </si>
 </sst>
 </file>
@@ -4598,4 +4602,1034 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>7698.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>13220.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>58.22995461422088</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>7038.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>109.37766410912192</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>12061.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>18700.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>64.49732620320856</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>11646.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>103.56345526360982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>2077.1</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2975.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>69.81848739495798</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>2051.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>101.27254997562163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>3366.7</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>4817.95</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>69.8782677279756</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>3095.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>108.77867528271405</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>558.25</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>796.75</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>70.06589268904926</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>548.4</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>101.79613420860686</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>2006.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>2848.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>70.43539325842697</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>1900.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>105.57894736842105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>2612.8</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>3693.6</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>70.73857483214209</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>2407.1</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>108.54555273981141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>52.7</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>74.3</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>70.92866756393002</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>46.15</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>114.19284940411703</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>36075.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>50590.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>71.30855900375569</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>35310.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>102.16652506372132</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>1668.6</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>2337.7</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>71.3778500235274</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>1451.95</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>114.92131271738006</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>2190.9</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>2998.4</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>73.06897011739595</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>2090.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>104.82775119617226</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>3235.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>4330.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>74.71131639722864</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>2951.1</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>109.62014164209955</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>865.5</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1086.55</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>79.65579126593346</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>606.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>142.82178217821783</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>884.75</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>1104.3</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>80.11862718464187</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>153.3362218370884</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>1830.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>2246.9</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>81.44554719836218</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>1311.35</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>139.55084454951006</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>685.15</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>831.75</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>82.37451157198676</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>656.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>104.44359756097562</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>1664.9</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>2005.36</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>83.02249970080186</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>1194.01</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>139.43769315164866</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>862.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>1027.25</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>83.91336091506449</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>663.05</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>130.00527863660358</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>79.2</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>92.34</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>85.76998050682262</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>111.5492957746479</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>425.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>494.55</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>85.9367101405318</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>130.76923076923077</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>2637.2</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>3030.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>87.03630363036302</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>1227.33</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>214.87293555930353</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>502.35</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>87.06239168110919</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>433.3</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>115.93584121855527</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>1187.4</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>1356.2</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>87.55345819200707</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>1010.0</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>117.56435643564357</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>2108.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>2402.9</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>87.7273294768821</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>1795.2</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>117.42424242424241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>1597.5</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>1814.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>88.06504961411245</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>1048.05</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>152.42593387720052</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>21.62</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>24.3</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>88.97119341563787</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>16.02</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>134.95630461922596</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>2675.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>2967.25</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>90.15081304237931</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>1781.53</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>150.15183578160344</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>5762.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>6388.5</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>90.19331611489395</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>3344.0</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>172.3086124401914</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>2788.9</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>3078.4</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>90.59576403326403</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>2044.55</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>136.4065442273361</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>3067.7</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>3325.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>92.26165413533835</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>2196.85</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>139.64084939800168</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>6257.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>6768.8</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>92.43883701690108</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>4148.95</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>150.80924089227395</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>1297.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>1381.8</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>93.86307714575192</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>651.5</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>199.07904834996162</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>104.2</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>110.36</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>94.41826748822038</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>67.75</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>153.8007380073801</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>1676.2</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>1751.4</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>95.70629210916981</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>950.0</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>176.4421052631579</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>4427.2</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>4615.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>95.93066088840736</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>2580.0</v>
+      </c>
+      <c r="F36" t="n" s="0">
+        <v>171.59689922480618</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>7596.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>7903.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>96.11539921548778</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>4555.0</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>166.76180021953897</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>421.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>434.7</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>96.8484011962273</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>312.55</v>
+      </c>
+      <c r="F38" t="n" s="0">
+        <v>134.69844824828027</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>295.25</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>97.54445385266723</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>163.63636363636363</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>3809.6</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>3890.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>97.9331619537275</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>1965.0</v>
+      </c>
+      <c r="F40" t="n" s="0">
+        <v>193.8727735368957</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>84.64</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>98.06238185255198</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>59.53</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>139.4254997480262</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>750.7</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>765.3</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>98.09225140467791</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>577.85</v>
+      </c>
+      <c r="F42" t="n" s="0">
+        <v>129.9126070779614</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>271.1</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>98.48764293618589</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>172.66</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>154.63917525773198</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>1470.0</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>1490.9</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>98.59816218391575</v>
+      </c>
+      <c r="E44" t="n" s="0">
+        <v>919.1</v>
+      </c>
+      <c r="F44" t="n" s="0">
+        <v>159.93907083015992</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>1913.0</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>1936.0</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>98.81198347107438</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>1272.7</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>150.31036379350985</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>996.4</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>1007.25</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>98.92280963018119</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>478.35</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>208.2993623915543</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>1852.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>1871.0</v>
+      </c>
+      <c r="D47" t="n" s="0">
+        <v>98.98450026723677</v>
+      </c>
+      <c r="E47" t="n" s="0">
+        <v>1402.5</v>
+      </c>
+      <c r="F47" t="n" s="0">
+        <v>132.04991087344027</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>793.05</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="D48" t="n" s="0">
+        <v>99.00749063670412</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>493.0</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>160.86206896551724</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>180.34</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>99.25695907729843</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>95.93</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>186.59439174397997</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>85.5</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>99.4186046511628</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>52.46</v>
+      </c>
+      <c r="F50" t="n" s="0">
+        <v>162.9813191002669</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>499.5</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>500.9</v>
+      </c>
+      <c r="D51" t="n" s="0">
+        <v>99.72050309443004</v>
+      </c>
+      <c r="E51" t="n" s="0">
+        <v>287.55</v>
+      </c>
+      <c r="F51" t="n" s="0">
+        <v>173.7089201877934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>